--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,75 +46,75 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>ok</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
@@ -124,33 +124,27 @@
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
@@ -169,13 +166,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -542,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,31 +676,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L4">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4">
-        <v>0.8</v>
-      </c>
-      <c r="L4">
-        <v>52</v>
-      </c>
-      <c r="M4">
-        <v>52</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.734375</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7580645161290323</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.5849056603773585</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7378640776699029</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.515625</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.734375</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.380327868852459</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L8">
-        <v>464</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>464</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>756</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.3304597701149425</v>
+        <v>0.3622950819672131</v>
       </c>
       <c r="L9">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="M9">
-        <v>231</v>
+        <v>442</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>466</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6554054054054054</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.2883817427385892</v>
+        <v>0.3433908045977012</v>
       </c>
       <c r="L10">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="M10">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>343</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.2349397590361446</v>
+        <v>0.2800829875518672</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>127</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5882352941176471</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.1865443425076453</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>266</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5555555555555556</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,16 +1129,16 @@
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.1204819277108434</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5101449275362319</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D14">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.09640666082383874</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1031</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4736842105263158</v>
+        <v>0.4960629921259843</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,31 +1226,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.04415584415584416</v>
+        <v>0.08676599474145487</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1472</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4457831325301205</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,7 +1276,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16">
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>77</v>
+      </c>
+      <c r="M16">
+        <v>78</v>
+      </c>
+      <c r="N16">
+        <v>0.99</v>
+      </c>
+      <c r="O16">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1463</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1287,13 +1308,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4173228346456693</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1305,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1313,13 +1334,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3820224719101123</v>
+        <v>0.359375</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1331,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1339,13 +1360,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.359375</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1357,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1365,13 +1386,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3366336633663367</v>
+        <v>0.3033175355450237</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1383,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1391,13 +1412,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3364928909952606</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1409,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1417,13 +1438,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2371134020618557</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1435,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1443,13 +1464,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.213768115942029</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1461,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1469,13 +1490,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2088607594936709</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1487,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1495,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2038216560509554</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1513,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>125</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1521,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1962025316455696</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1539,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>254</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1547,25 +1568,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1958456973293768</v>
+        <v>0.175792507204611</v>
       </c>
       <c r="C27">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>542</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1573,13 +1594,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.175</v>
+        <v>0.16</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1591,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1599,25 +1620,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1585903083700441</v>
+        <v>0.1501103752759382</v>
       </c>
       <c r="C29">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1625,13 +1646,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1448598130841121</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1643,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1651,13 +1672,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.132183908045977</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1669,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>302</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1677,13 +1698,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1086142322097378</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1695,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1703,13 +1724,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09863013698630137</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1721,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1729,77 +1750,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07920792079207921</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.0645879732739421</v>
-      </c>
-      <c r="C35">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>29</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.04441624365482234</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>41</v>
-      </c>
-      <c r="E36">
-        <v>0.15</v>
-      </c>
-      <c r="F36">
-        <v>0.85</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>753</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
